--- a/data/trans_orig/P05A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>210747</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>194584</v>
+        <v>195139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>222865</v>
+        <v>223001</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7743128465690226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7149287606591104</v>
+        <v>0.7169667138356803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8188343692175183</v>
+        <v>0.8193363277374951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -765,19 +765,19 @@
         <v>202778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187591</v>
+        <v>187017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>215859</v>
+        <v>215138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7835803892282801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7248945269142156</v>
+        <v>0.7226772960971677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8341262347947132</v>
+        <v>0.8313428223259185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -786,19 +786,19 @@
         <v>413525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>392831</v>
+        <v>394549</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>431780</v>
+        <v>433532</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7788297737444237</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7398540907854199</v>
+        <v>0.74309005167918</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8132114472466371</v>
+        <v>0.8165113423108357</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>55647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44139</v>
+        <v>43565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71119</v>
+        <v>71009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2044556924342747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1621719599922178</v>
+        <v>0.1600640461405144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2613013804911994</v>
+        <v>0.2608961899803978</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -836,19 +836,19 @@
         <v>51817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39361</v>
+        <v>40053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66512</v>
+        <v>68262</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2002329131782826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1521001603050078</v>
+        <v>0.1547743428775336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2570155373879006</v>
+        <v>0.2637812153181333</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -857,19 +857,19 @@
         <v>107464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90539</v>
+        <v>88558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>126667</v>
+        <v>126281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2023975431407229</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1705199777226777</v>
+        <v>0.1667896635866297</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2385637878190504</v>
+        <v>0.2378369059940738</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1914</v>
+        <v>2026</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12953</v>
+        <v>14122</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02123146099670279</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00703244253189832</v>
+        <v>0.007444351115537364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04759151586137041</v>
+        <v>0.05188776070078291</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>4189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10521</v>
+        <v>9535</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01618669759343733</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004161206043730849</v>
+        <v>0.004098347623733332</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04065558736681023</v>
+        <v>0.0368442464151808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -928,19 +928,19 @@
         <v>9967</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4734</v>
+        <v>4722</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18247</v>
+        <v>18418</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01877268311485326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008916446128077652</v>
+        <v>0.008892643925592468</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03436546597661041</v>
+        <v>0.03468857086079821</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>356629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>334134</v>
+        <v>334004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375409</v>
+        <v>375687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.725997803102241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6802037411187895</v>
+        <v>0.6799396772945671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.764227896435262</v>
+        <v>0.7647949626341499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -1053,19 +1053,19 @@
         <v>349660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328630</v>
+        <v>326560</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368707</v>
+        <v>369840</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6951856887346288</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6533758025126374</v>
+        <v>0.6492600601773347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7330549907878084</v>
+        <v>0.7353081365859173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>687</v>
@@ -1074,19 +1074,19 @@
         <v>706289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>676108</v>
+        <v>678257</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734796</v>
+        <v>735550</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7104097187529808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6800527729772007</v>
+        <v>0.6822143224981669</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7390837033251</v>
+        <v>0.7398414685683463</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>125651</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>107878</v>
+        <v>106918</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147473</v>
+        <v>146618</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2557911116799009</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2196101383846855</v>
+        <v>0.2176555228190828</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3002139051948945</v>
+        <v>0.2984732229701427</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>129</v>
@@ -1124,19 +1124,19 @@
         <v>131174</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113870</v>
+        <v>111386</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>153285</v>
+        <v>152636</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2607970140172037</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2263929398224769</v>
+        <v>0.2214543930383358</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3047580111708858</v>
+        <v>0.3034685082035136</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>245</v>
@@ -1145,19 +1145,19 @@
         <v>256825</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>227243</v>
+        <v>228077</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>286044</v>
+        <v>284808</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2583236359639227</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2285693050855536</v>
+        <v>0.2294081072551339</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2877132475167632</v>
+        <v>0.2864695760602963</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>8946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4051</v>
+        <v>4122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17100</v>
+        <v>16022</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01821108521785804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008246661246724541</v>
+        <v>0.008390919642150866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0348111603767404</v>
+        <v>0.03261627618812873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1195,19 +1195,19 @@
         <v>22140</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14189</v>
+        <v>13578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32226</v>
+        <v>32235</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04401729724816741</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02821031240581843</v>
+        <v>0.02699593309543799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06407164877050843</v>
+        <v>0.06408795636368718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1216,19 +1216,19 @@
         <v>31085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20949</v>
+        <v>20660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42645</v>
+        <v>43424</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03126664528309649</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02107083746406734</v>
+        <v>0.02078071784040464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04289361119353221</v>
+        <v>0.0436774289470389</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>258773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>242365</v>
+        <v>242849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>271113</v>
+        <v>271794</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8115935712925177</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7601324337679191</v>
+        <v>0.7616488912821096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8502960273196027</v>
+        <v>0.8524313087098978</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>230</v>
@@ -1341,19 +1341,19 @@
         <v>228083</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>211844</v>
+        <v>210873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>245271</v>
+        <v>245589</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6800093484140516</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6315934438357227</v>
+        <v>0.6286985738307781</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7312525797387309</v>
+        <v>0.7321999361664846</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>480</v>
@@ -1362,19 +1362,19 @@
         <v>486857</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>462980</v>
+        <v>465624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506730</v>
+        <v>509161</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7441355754310479</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7076419298863463</v>
+        <v>0.7116827100434675</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7745114994839191</v>
+        <v>0.7782269513408253</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>49916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39019</v>
+        <v>38553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65962</v>
+        <v>64944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1565508705889752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1223767522495578</v>
+        <v>0.120915542941597</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2068763098073663</v>
+        <v>0.203684195948765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -1412,19 +1412,19 @@
         <v>69809</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55281</v>
+        <v>56107</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84933</v>
+        <v>84975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2081285626406775</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1648142347180823</v>
+        <v>0.1672790730080112</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2532189384851485</v>
+        <v>0.2533442139539795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1433,19 +1433,19 @@
         <v>119724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101358</v>
+        <v>101458</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140393</v>
+        <v>141338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1829927012344431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1549212213175417</v>
+        <v>0.1550737087996553</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2145838906344839</v>
+        <v>0.2160285626936043</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>10157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5517</v>
+        <v>4677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18326</v>
+        <v>17691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03185555811850704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01730290770946291</v>
+        <v>0.01466914024933645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0574764739591172</v>
+        <v>0.05548298265687442</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -1483,19 +1483,19 @@
         <v>37520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26716</v>
+        <v>26908</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50450</v>
+        <v>50660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1118620889452709</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07965007101539244</v>
+        <v>0.08022498520672222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1504124155080707</v>
+        <v>0.1510388536372149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1504,19 +1504,19 @@
         <v>47677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35336</v>
+        <v>35601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61717</v>
+        <v>61940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07287172333450898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05401003370763507</v>
+        <v>0.05441479159341396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09433117564299599</v>
+        <v>0.0946719596046829</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>286335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>271015</v>
+        <v>269684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>300823</v>
+        <v>300075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8004028381545222</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7575775401067757</v>
+        <v>0.7538573036013849</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8409007217682369</v>
+        <v>0.8388092114956395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -1629,19 +1629,19 @@
         <v>302584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285880</v>
+        <v>287679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>316342</v>
+        <v>316118</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8145891196169578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7696196088273868</v>
+        <v>0.7744624935473019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8516262797331999</v>
+        <v>0.8510248147335785</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>604</v>
@@ -1650,19 +1650,19 @@
         <v>588919</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>566160</v>
+        <v>568125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>608926</v>
+        <v>609021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8076294048276479</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7764179926721465</v>
+        <v>0.7791125982953913</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8350657703535861</v>
+        <v>0.8351965920754281</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>59375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46695</v>
+        <v>46709</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75178</v>
+        <v>75137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1659715837099083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1305283036008497</v>
+        <v>0.130566092332576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2101486347057393</v>
+        <v>0.2100323858719788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -1700,19 +1700,19 @@
         <v>55181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43233</v>
+        <v>42749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70052</v>
+        <v>69627</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1485529119273865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1163871681817576</v>
+        <v>0.1150858082391891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1885886900951989</v>
+        <v>0.1874441800380202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -1721,19 +1721,19 @@
         <v>114555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96172</v>
+        <v>96287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137101</v>
+        <v>135822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1570984203423972</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1318885282634814</v>
+        <v>0.1320461538961127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.188016975812169</v>
+        <v>0.1862627874231924</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>12029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6402</v>
+        <v>6426</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19143</v>
+        <v>21953</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03362557813556951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01789563689227212</v>
+        <v>0.01796203899918757</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05351203559720751</v>
+        <v>0.06136561487434403</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1771,19 +1771,19 @@
         <v>13691</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7587</v>
+        <v>7869</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22393</v>
+        <v>22355</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03685796845565569</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02042549871800339</v>
+        <v>0.02118361678439682</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06028331179526062</v>
+        <v>0.06018292000912886</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1792,19 +1792,19 @@
         <v>25720</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16853</v>
+        <v>16651</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37564</v>
+        <v>36733</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03527217482995501</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02311117331170051</v>
+        <v>0.0228351281314472</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05151499293531141</v>
+        <v>0.05037512309151306</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>167922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157681</v>
+        <v>156317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177961</v>
+        <v>177068</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8294893523420539</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7789011104305577</v>
+        <v>0.772162672715708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8790788520861759</v>
+        <v>0.8746693633960764</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>164</v>
@@ -1917,19 +1917,19 @@
         <v>173806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162270</v>
+        <v>162779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182437</v>
+        <v>183662</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8409685073130035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7851491130239784</v>
+        <v>0.7876139141045279</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8827274098457208</v>
+        <v>0.8886550793157152</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>333</v>
@@ -1938,19 +1938,19 @@
         <v>341728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>326175</v>
+        <v>325244</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>354745</v>
+        <v>355504</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8352883255193786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7972724896889443</v>
+        <v>0.7949965785207975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8671059812492763</v>
+        <v>0.8689597270043345</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>28417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19963</v>
+        <v>19493</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38807</v>
+        <v>38491</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1403727830527945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09861100632691122</v>
+        <v>0.09628978668876832</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.191694451835106</v>
+        <v>0.1901357599991951</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1988,19 +1988,19 @@
         <v>27932</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19890</v>
+        <v>19088</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39894</v>
+        <v>39886</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.135149605269178</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09623807283290173</v>
+        <v>0.09235996523508219</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1930278154174386</v>
+        <v>0.1929877637110337</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -2009,19 +2009,19 @@
         <v>56349</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44194</v>
+        <v>43701</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>70916</v>
+        <v>71989</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1377341682815642</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1080238971336155</v>
+        <v>0.1068175357791528</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1733407534470595</v>
+        <v>0.1759630337221243</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>6101</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12505</v>
+        <v>12663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0301378646051515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009183681426540368</v>
+        <v>0.009110975054035721</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06177342545367166</v>
+        <v>0.06255418592494136</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2059,19 +2059,19 @@
         <v>4936</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1841</v>
+        <v>1930</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11881</v>
+        <v>11758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02388188741781841</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00890906987830585</v>
+        <v>0.009336293433318351</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05748857440709814</v>
+        <v>0.05689350086695012</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2080,19 +2080,19 @@
         <v>11037</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5721</v>
+        <v>5827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18559</v>
+        <v>19126</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02697750619905723</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01398456175861798</v>
+        <v>0.01424338579548662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04536315384746145</v>
+        <v>0.04675082621375962</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>214373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>200979</v>
+        <v>201756</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>227126</v>
+        <v>228535</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7915964544555341</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7421377370502268</v>
+        <v>0.7450060438339648</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8386870745477297</v>
+        <v>0.8438904138117508</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>200</v>
@@ -2205,19 +2205,19 @@
         <v>204708</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>190437</v>
+        <v>189296</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>219168</v>
+        <v>218498</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7384759432464134</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6869937628926008</v>
+        <v>0.6828803904064932</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7906395631972255</v>
+        <v>0.7882248573403998</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>411</v>
@@ -2226,19 +2226,19 @@
         <v>419081</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>398815</v>
+        <v>399615</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>438201</v>
+        <v>439208</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7647263800595654</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7277462527557299</v>
+        <v>0.7292067270170328</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7996169992360206</v>
+        <v>0.8014531338208934</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>48985</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37533</v>
+        <v>35827</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62001</v>
+        <v>61987</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.180882818643799</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1385945701511282</v>
+        <v>0.132293385908113</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2289467694952806</v>
+        <v>0.2288939668584776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2276,19 +2276,19 @@
         <v>59887</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46598</v>
+        <v>47886</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73633</v>
+        <v>74788</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2160413813119645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.168099879399361</v>
+        <v>0.172746420886233</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2656297963908097</v>
+        <v>0.2697933471398943</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -2297,19 +2297,19 @@
         <v>108872</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>90387</v>
+        <v>89934</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>126479</v>
+        <v>127034</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1986671579328141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1649353905054725</v>
+        <v>0.1641094840000313</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2307960216578854</v>
+        <v>0.2318081488037375</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>7453</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2903</v>
+        <v>3564</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14539</v>
+        <v>15389</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02752072690066693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01071787705584694</v>
+        <v>0.0131619763961153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05368617550403745</v>
+        <v>0.05682701686431969</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2347,19 +2347,19 @@
         <v>12608</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6596</v>
+        <v>7193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20919</v>
+        <v>22208</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04548267544162206</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0237942516073116</v>
+        <v>0.02594813204039255</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07546519671884283</v>
+        <v>0.08011592389397876</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2368,19 +2368,19 @@
         <v>20061</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12308</v>
+        <v>12232</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30952</v>
+        <v>29746</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03660646200762045</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02245940158918809</v>
+        <v>0.02231973058639764</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05648059720692297</v>
+        <v>0.05428021394636754</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>484907</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>463178</v>
+        <v>462675</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>502927</v>
+        <v>502561</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7909176211072357</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7554763156871808</v>
+        <v>0.7546559681533057</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8203092530695936</v>
+        <v>0.819712314100578</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>443</v>
@@ -2493,19 +2493,19 @@
         <v>455938</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>431532</v>
+        <v>433311</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>477627</v>
+        <v>481442</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.714391853386861</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6761505750853294</v>
+        <v>0.6789373996395471</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7483741689793985</v>
+        <v>0.7543521514551119</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>909</v>
@@ -2514,19 +2514,19 @@
         <v>940845</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>908064</v>
+        <v>908549</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>970023</v>
+        <v>971129</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7518864549986937</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7256890267021924</v>
+        <v>0.7260768543233854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7752042691426646</v>
+        <v>0.776087854560609</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>103011</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>86516</v>
+        <v>87263</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>123590</v>
+        <v>124263</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.16801887108956</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1411142717145463</v>
+        <v>0.1423324263966436</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2015846001617023</v>
+        <v>0.2026816956229781</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>104</v>
@@ -2564,19 +2564,19 @@
         <v>105144</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89241</v>
+        <v>86009</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127194</v>
+        <v>125284</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1647466794001931</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1398275099303839</v>
+        <v>0.1347645508930058</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1992952244979428</v>
+        <v>0.1963027854049665</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>209</v>
@@ -2585,19 +2585,19 @@
         <v>208156</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>182880</v>
+        <v>181607</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>234198</v>
+        <v>234674</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1663499239993021</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1461508116981609</v>
+        <v>0.1451332221217174</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1871619682060325</v>
+        <v>0.1875421062560401</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>25176</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16324</v>
+        <v>17596</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38248</v>
+        <v>36293</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04106350780320428</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02662616767510629</v>
+        <v>0.02870007107699123</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06238549585232885</v>
+        <v>0.05919685009032473</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -2635,19 +2635,19 @@
         <v>77136</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>60983</v>
+        <v>61546</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94276</v>
+        <v>97120</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.120861467212946</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09555135711883841</v>
+        <v>0.09643466939755328</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1477176123173176</v>
+        <v>0.1521741665426567</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>99</v>
@@ -2656,19 +2656,19 @@
         <v>102312</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>81640</v>
+        <v>84364</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>123201</v>
+        <v>124334</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0817636210020042</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06524332790463133</v>
+        <v>0.0674203691343738</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09845749365767012</v>
+        <v>0.09936284020990199</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>580019</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>555960</v>
+        <v>554565</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>602879</v>
+        <v>601735</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7824754328430081</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7500189381910217</v>
+        <v>0.7481369219455608</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8133156723972991</v>
+        <v>0.8117721576428353</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>562</v>
@@ -2781,19 +2781,19 @@
         <v>589201</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>561962</v>
+        <v>564207</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>613721</v>
+        <v>614935</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7529016630407293</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.718094010942907</v>
+        <v>0.720963157993443</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7842342698374786</v>
+        <v>0.7857845815384394</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1133</v>
@@ -2802,19 +2802,19 @@
         <v>1169220</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1138528</v>
+        <v>1133815</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1203448</v>
+        <v>1203357</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7672876615208156</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7471462980614983</v>
+        <v>0.7440537270039116</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.789749700930085</v>
+        <v>0.789689949072378</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>142204</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>119596</v>
+        <v>121923</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>164769</v>
+        <v>166288</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1918406799242395</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1613418035768721</v>
+        <v>0.1644809611102052</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2222813958524866</v>
+        <v>0.2243311471998257</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>165</v>
@@ -2852,19 +2852,19 @@
         <v>176037</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>152892</v>
+        <v>151706</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>203733</v>
+        <v>199985</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2249462254606067</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1953710409413212</v>
+        <v>0.1938546243265798</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2603372483973252</v>
+        <v>0.2555483543697359</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>308</v>
@@ -2873,19 +2873,19 @@
         <v>318241</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>287579</v>
+        <v>287403</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>352222</v>
+        <v>352494</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2088422140020503</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1887205578911074</v>
+        <v>0.1886050824675202</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2311416298875713</v>
+        <v>0.2313200623983979</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>19038</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12563</v>
+        <v>11572</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29327</v>
+        <v>29867</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02568388723275234</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01694751418623434</v>
+        <v>0.01561159113409876</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03956318018365375</v>
+        <v>0.04029182528913988</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -2923,19 +2923,19 @@
         <v>17336</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10761</v>
+        <v>10616</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>27578</v>
+        <v>27897</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02215211149866401</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01375061362966268</v>
+        <v>0.01356580427982489</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03524068441855599</v>
+        <v>0.03564773979974128</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -2944,19 +2944,19 @@
         <v>36374</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26188</v>
+        <v>26233</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>49497</v>
+        <v>49316</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02387012447713406</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01718569954352198</v>
+        <v>0.01721508033956919</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03248189464674814</v>
+        <v>0.03236280695408066</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>2559705</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2514070</v>
+        <v>2506863</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2609271</v>
+        <v>2602396</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7833617302240591</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7693957516655158</v>
+        <v>0.7671901261098136</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7985306091123019</v>
+        <v>0.7964267315211343</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2450</v>
@@ -3069,19 +3069,19 @@
         <v>2506759</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2456061</v>
+        <v>2453742</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2558367</v>
+        <v>2554029</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7431187572802292</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.728089607525506</v>
+        <v>0.7274021521177554</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7584178043940208</v>
+        <v>0.7571317248664147</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4956</v>
@@ -3090,19 +3090,19 @@
         <v>5066464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4994383</v>
+        <v>4994655</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5130847</v>
+        <v>5131844</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7629199643874169</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7520658546697512</v>
+        <v>0.7521068621547162</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7726149137814518</v>
+        <v>0.7727651195853745</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>613206</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>569060</v>
+        <v>571914</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>659050</v>
+        <v>661885</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1876631325944222</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1741527203834549</v>
+        <v>0.1750261023349082</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2016930547678192</v>
+        <v>0.2025607336670403</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>658</v>
@@ -3140,19 +3140,19 @@
         <v>676981</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>633402</v>
+        <v>631662</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>723322</v>
+        <v>725584</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2006884591962383</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1877694485393179</v>
+        <v>0.1872537765299003</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2144259624322924</v>
+        <v>0.2150966628819498</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1263</v>
@@ -3161,19 +3161,19 @@
         <v>1290188</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1227478</v>
+        <v>1226796</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1359169</v>
+        <v>1351761</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1942794597905206</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1848365022971047</v>
+        <v>0.1847337874660337</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2046668626512346</v>
+        <v>0.2035512739860844</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>94679</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>75925</v>
+        <v>76956</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>114306</v>
+        <v>114938</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02897513718151878</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02323591932432007</v>
+        <v>0.02355139602949683</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03498180310105858</v>
+        <v>0.03517507562446649</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>183</v>
@@ -3211,19 +3211,19 @@
         <v>189555</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>163077</v>
+        <v>163245</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>217805</v>
+        <v>216229</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05619278352353238</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04834361589246289</v>
+        <v>0.04839332266205238</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06456741860613023</v>
+        <v>0.06410023869539408</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>277</v>
@@ -3232,19 +3232,19 @@
         <v>284234</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>252597</v>
+        <v>252500</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>319771</v>
+        <v>319638</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04280057582206256</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03803663861908504</v>
+        <v>0.03802207802195961</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04815187458432982</v>
+        <v>0.04813181829907569</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>231115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215408</v>
+        <v>215280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244307</v>
+        <v>243844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7930004565764482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7391068831275464</v>
+        <v>0.7386683508212262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8382649851737182</v>
+        <v>0.8366753189209991</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -3601,19 +3601,19 @@
         <v>203961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187757</v>
+        <v>188036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>218651</v>
+        <v>220172</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7224426850638282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6650470696325539</v>
+        <v>0.6660341873761536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.774474543964946</v>
+        <v>0.7798611011878054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>405</v>
@@ -3622,19 +3622,19 @@
         <v>435077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>412441</v>
+        <v>413772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>456451</v>
+        <v>455377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7582824705061963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7188314908807113</v>
+        <v>0.7211512237260602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7955356611709002</v>
+        <v>0.7936630560525875</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>45337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33616</v>
+        <v>33972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59395</v>
+        <v>58911</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1555593347206704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1153439439336217</v>
+        <v>0.1165630167760491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2037956428938702</v>
+        <v>0.2021335298310381</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -3672,19 +3672,19 @@
         <v>58610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45353</v>
+        <v>45363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74243</v>
+        <v>74513</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2075981573282342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1606422555302246</v>
+        <v>0.1606789065053144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2629734088725919</v>
+        <v>0.2639286988540293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -3693,19 +3693,19 @@
         <v>103946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85627</v>
+        <v>84895</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>124327</v>
+        <v>123885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1811650629015635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1492364381199994</v>
+        <v>0.1479603948515481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2166853582870961</v>
+        <v>0.2159159126353866</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>14992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8379</v>
+        <v>8681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25136</v>
+        <v>27239</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05144020870288143</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02875016502630865</v>
+        <v>0.02978754158438159</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.086247830751791</v>
+        <v>0.09346102546065189</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -3743,19 +3743,19 @@
         <v>19751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11872</v>
+        <v>12397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29708</v>
+        <v>30835</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06995915760793749</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04205029963629583</v>
+        <v>0.0439096957430154</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1052287942655101</v>
+        <v>0.1092192374868405</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -3764,19 +3764,19 @@
         <v>34743</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24098</v>
+        <v>24233</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48895</v>
+        <v>49243</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06055246659224019</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04200054684053717</v>
+        <v>0.04223545549535861</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08521744084694051</v>
+        <v>0.08582424054522413</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>392162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>371085</v>
+        <v>370776</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409978</v>
+        <v>410377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7789003948369774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7370367140816831</v>
+        <v>0.7364228693275694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8142844303437363</v>
+        <v>0.8150781858798958</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>377</v>
@@ -3889,19 +3889,19 @@
         <v>411895</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>392408</v>
+        <v>389330</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>428974</v>
+        <v>429105</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7938754569785134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7563159222874115</v>
+        <v>0.7503837624058515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8267919331103445</v>
+        <v>0.8270457396629675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -3910,19 +3910,19 @@
         <v>804057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>773845</v>
+        <v>774992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>827507</v>
+        <v>831918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7865004165257627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7569480899621932</v>
+        <v>0.7580699436164935</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8094384131200931</v>
+        <v>0.813753555194208</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>96463</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79227</v>
+        <v>79016</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116675</v>
+        <v>116361</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1915920619450194</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1573577521519194</v>
+        <v>0.1569391908630337</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2317352985080834</v>
+        <v>0.2311130621880507</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -3960,19 +3960,19 @@
         <v>82472</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>65692</v>
+        <v>66334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100184</v>
+        <v>101242</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1589546497151236</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1266137829137597</v>
+        <v>0.1278507030710594</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1930917850577535</v>
+        <v>0.1951319769132918</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>165</v>
@@ -3981,19 +3981,19 @@
         <v>178935</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>154711</v>
+        <v>155105</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>204648</v>
+        <v>206969</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1750281880546371</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1513331425673005</v>
+        <v>0.1517181722308584</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2001797263087409</v>
+        <v>0.2024502928644222</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>14857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8845</v>
+        <v>8859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26173</v>
+        <v>24387</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02950754321800323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01756806241370197</v>
+        <v>0.01759456455983764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05198393773070423</v>
+        <v>0.04843668246224682</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -4031,19 +4031,19 @@
         <v>24474</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15430</v>
+        <v>15927</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36298</v>
+        <v>37682</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04716989330636305</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02973952169456883</v>
+        <v>0.03069815310934621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06995926121595851</v>
+        <v>0.07262715451922995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -4052,19 +4052,19 @@
         <v>39330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27724</v>
+        <v>27530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55490</v>
+        <v>53173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03847139541960006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02711887472318926</v>
+        <v>0.02692908027671425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05427821063072458</v>
+        <v>0.05201184704038481</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>306382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>297424</v>
+        <v>297543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>312525</v>
+        <v>312462</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9513647132597948</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9235490604555611</v>
+        <v>0.9239188799572862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.970438893143084</v>
+        <v>0.9702423287746943</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>298</v>
@@ -4177,19 +4177,19 @@
         <v>319516</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>308195</v>
+        <v>308243</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>327433</v>
+        <v>327687</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9369416922124545</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9037442224959232</v>
+        <v>0.9038857079461039</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9601579090042326</v>
+        <v>0.9609039811292259</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>599</v>
@@ -4198,19 +4198,19 @@
         <v>625898</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>611458</v>
+        <v>610808</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>636693</v>
+        <v>636365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.943946830845615</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9221694411025093</v>
+        <v>0.9211884420467615</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9602277793541693</v>
+        <v>0.9597328696412802</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>12776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6994</v>
+        <v>6898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21621</v>
+        <v>20691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03967076146360348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02171798163660877</v>
+        <v>0.02141897226812783</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06713741184198219</v>
+        <v>0.06424883130560013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -4248,19 +4248,19 @@
         <v>21504</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13587</v>
+        <v>13333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32825</v>
+        <v>32777</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06305830778754547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03984209099576756</v>
+        <v>0.03909601887077414</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09625577750407723</v>
+        <v>0.09611429205389616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -4269,19 +4269,19 @@
         <v>34280</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23181</v>
+        <v>24253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46524</v>
+        <v>47573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0516991754843384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03496071744641003</v>
+        <v>0.03657636404917346</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0701645278620834</v>
+        <v>0.07174761689062824</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>2887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8531</v>
+        <v>7856</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008964525276601723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002883954533124204</v>
+        <v>0.002865095706428075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02649149330696001</v>
+        <v>0.02439279938792833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4332,19 +4332,19 @@
         <v>2887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8458</v>
+        <v>8750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004353993670046509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001392925572876385</v>
+        <v>0.001397818192813673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01275637846189596</v>
+        <v>0.0131959143950487</v>
       </c>
     </row>
     <row r="15">
@@ -4436,19 +4436,19 @@
         <v>311981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>294190</v>
+        <v>296197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>325728</v>
+        <v>326719</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8368269296572096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7891059606629643</v>
+        <v>0.7944906293783484</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8737003171690843</v>
+        <v>0.8763588144118198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -4457,19 +4457,19 @@
         <v>288039</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>269436</v>
+        <v>268857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>304024</v>
+        <v>303889</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7443244372952249</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.696251376919712</v>
+        <v>0.694754556350634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7856291129048238</v>
+        <v>0.7852802734527691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>562</v>
@@ -4478,19 +4478,19 @@
         <v>600021</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>578794</v>
+        <v>577890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>622907</v>
+        <v>620912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7897132968075926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7617753467813982</v>
+        <v>0.7605852095513556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8198341942498782</v>
+        <v>0.8172085316886132</v>
       </c>
     </row>
     <row r="17">
@@ -4507,19 +4507,19 @@
         <v>50685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37643</v>
+        <v>38203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67297</v>
+        <v>65188</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.13595325205411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1009690483370913</v>
+        <v>0.1024713503383826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1805102819079009</v>
+        <v>0.174854213141724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -4528,19 +4528,19 @@
         <v>71886</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58562</v>
+        <v>57606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89394</v>
+        <v>89303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1857605822878135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1513304689121009</v>
+        <v>0.1488593265315916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2310030993037675</v>
+        <v>0.2307689386062194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -4549,19 +4549,19 @@
         <v>122571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>102213</v>
+        <v>103259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>143735</v>
+        <v>143193</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1613212633360926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1345274449410961</v>
+        <v>0.1359034799308965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1891754327605211</v>
+        <v>0.1884628731124401</v>
       </c>
     </row>
     <row r="18">
@@ -4578,19 +4578,19 @@
         <v>10148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4964</v>
+        <v>5084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19289</v>
+        <v>18250</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02721981828868039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01331628465307794</v>
+        <v>0.01363785715135025</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0517376703497759</v>
+        <v>0.04895086611039767</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -4599,19 +4599,19 @@
         <v>27056</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17858</v>
+        <v>16705</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39177</v>
+        <v>38891</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06991498041696166</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04614734637260922</v>
+        <v>0.04316731107538162</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1012388107494676</v>
+        <v>0.1004997201489863</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -4620,19 +4620,19 @@
         <v>37204</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26219</v>
+        <v>26390</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52689</v>
+        <v>50568</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04896543985631484</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03450839430014714</v>
+        <v>0.03473296743953162</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06934607076504257</v>
+        <v>0.06655424352962394</v>
       </c>
     </row>
     <row r="19">
@@ -4724,19 +4724,19 @@
         <v>185408</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174134</v>
+        <v>171510</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194474</v>
+        <v>194137</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8720234610510569</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8190002657418617</v>
+        <v>0.8066580205247478</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9146624564426593</v>
+        <v>0.9130780653691507</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -4745,19 +4745,19 @@
         <v>172743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158598</v>
+        <v>159712</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183798</v>
+        <v>183980</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7866587316340297</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7222425053618728</v>
+        <v>0.727315702455694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8370003170623153</v>
+        <v>0.8378314067603876</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>338</v>
@@ -4766,19 +4766,19 @@
         <v>358151</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340701</v>
+        <v>341352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>372984</v>
+        <v>374256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8286524886972093</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7882782149215737</v>
+        <v>0.7897845144473301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8629710726941383</v>
+        <v>0.8659139210952146</v>
       </c>
     </row>
     <row r="21">
@@ -4795,19 +4795,19 @@
         <v>19052</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11821</v>
+        <v>11540</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30376</v>
+        <v>31556</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08960622888786907</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05559867412011556</v>
+        <v>0.05427543286242115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1428680414952967</v>
+        <v>0.1484175511452731</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -4816,19 +4816,19 @@
         <v>34653</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24326</v>
+        <v>24568</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47916</v>
+        <v>46621</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1578057179151154</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1107794247441281</v>
+        <v>0.1118821445880837</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2182036050409867</v>
+        <v>0.2123063191084988</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -4837,19 +4837,19 @@
         <v>53705</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40884</v>
+        <v>40273</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72012</v>
+        <v>69570</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1242561150100084</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09459301822098402</v>
+        <v>0.09317857008147197</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1666143181145829</v>
+        <v>0.1609645928824655</v>
       </c>
     </row>
     <row r="22">
@@ -4866,19 +4866,19 @@
         <v>8158</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3824</v>
+        <v>3795</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15630</v>
+        <v>15511</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03837031006107408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01798415139681645</v>
+        <v>0.01784983790288417</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07351302285429713</v>
+        <v>0.07295066716615964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4887,19 +4887,19 @@
         <v>12195</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6959</v>
+        <v>6506</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19897</v>
+        <v>19447</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05553555045085493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03169114405361269</v>
+        <v>0.0296279760519558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09060714649112038</v>
+        <v>0.08855816637268353</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4908,19 +4908,19 @@
         <v>20353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12500</v>
+        <v>13177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30041</v>
+        <v>31257</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04709139629278229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02892073664588726</v>
+        <v>0.0304870015793933</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06950509573608749</v>
+        <v>0.07231981352664547</v>
       </c>
     </row>
     <row r="23">
@@ -5012,19 +5012,19 @@
         <v>254662</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>243772</v>
+        <v>243588</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>261783</v>
+        <v>261758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9294884999951475</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.889742044198187</v>
+        <v>0.8890707622427571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9554768880911971</v>
+        <v>0.9553884443086373</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>258</v>
@@ -5033,19 +5033,19 @@
         <v>268887</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>260690</v>
+        <v>261632</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>274119</v>
+        <v>274087</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9602054994626965</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9309341298884496</v>
+        <v>0.9342967507832051</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9788886749682892</v>
+        <v>0.9787734469397787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>501</v>
@@ -5054,19 +5054,19 @@
         <v>523549</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>510831</v>
+        <v>511224</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>533446</v>
+        <v>533557</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9450147196319412</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9220580531422735</v>
+        <v>0.9227667572771678</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9628781789530015</v>
+        <v>0.9630792344788527</v>
       </c>
     </row>
     <row r="25">
@@ -5083,19 +5083,19 @@
         <v>15265</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8975</v>
+        <v>8891</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26439</v>
+        <v>26119</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05571535410882607</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03275657117048685</v>
+        <v>0.03245194753440851</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09650032470612968</v>
+        <v>0.09533066149991644</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -5104,19 +5104,19 @@
         <v>10087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5010</v>
+        <v>4934</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18128</v>
+        <v>17235</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0360224372102709</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01789205135277891</v>
+        <v>0.01762097310744157</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06473505595180444</v>
+        <v>0.06154824848965511</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -5125,19 +5125,19 @@
         <v>25352</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16218</v>
+        <v>16046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36989</v>
+        <v>36664</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04576136907265384</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02927352649217821</v>
+        <v>0.02896356611114413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06676541449981058</v>
+        <v>0.06617963612361923</v>
       </c>
     </row>
     <row r="26">
@@ -5154,19 +5154,19 @@
         <v>4054</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10295</v>
+        <v>10120</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01479614589602645</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003827110549035124</v>
+        <v>0.003811040349420431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03757407019139677</v>
+        <v>0.03693641409878467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5272</v>
+        <v>6367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003772063327032599</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01882489170083908</v>
+        <v>0.02273674800062558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -5196,19 +5196,19 @@
         <v>5110</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11328</v>
+        <v>11381</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009223911295405006</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003649423664723739</v>
+        <v>0.003640684391231095</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02044755003566045</v>
+        <v>0.02054370902946407</v>
       </c>
     </row>
     <row r="27">
@@ -5300,19 +5300,19 @@
         <v>606884</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>588535</v>
+        <v>591993</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>619556</v>
+        <v>621257</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9182919477085318</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8905262694209323</v>
+        <v>0.8957595173951859</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9374662781684573</v>
+        <v>0.9400390768563728</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>585</v>
@@ -5321,19 +5321,19 @@
         <v>637021</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>620697</v>
+        <v>619506</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>651817</v>
+        <v>649729</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.918091488190137</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8945656117773507</v>
+        <v>0.8928490218588838</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9394165534381873</v>
+        <v>0.936406930391585</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1152</v>
@@ -5342,19 +5342,19 @@
         <v>1243905</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1221247</v>
+        <v>1219804</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1262618</v>
+        <v>1262185</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9181892787282093</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.901463982521835</v>
+        <v>0.9003989367756303</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9320021846738761</v>
+        <v>0.9316828678208617</v>
       </c>
     </row>
     <row r="29">
@@ -5371,19 +5371,19 @@
         <v>45070</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33295</v>
+        <v>31432</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61539</v>
+        <v>59551</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0681963936363833</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05037924547854054</v>
+        <v>0.04756069545705999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09311662251582319</v>
+        <v>0.0901080890823618</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>38</v>
@@ -5392,19 +5392,19 @@
         <v>41352</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28928</v>
+        <v>29817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54994</v>
+        <v>56326</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0595971818077019</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04169237697607725</v>
+        <v>0.04297281456009373</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07925931946866456</v>
+        <v>0.08117793134462943</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>79</v>
@@ -5413,19 +5413,19 @@
         <v>86422</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>69358</v>
+        <v>68508</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>106050</v>
+        <v>105455</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06379215123823199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05119628701360772</v>
+        <v>0.05056890835488612</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07828085871549889</v>
+        <v>0.07784143811094403</v>
       </c>
     </row>
     <row r="30">
@@ -5442,19 +5442,19 @@
         <v>8930</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4042</v>
+        <v>4146</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16398</v>
+        <v>16894</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01351165865508488</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006115858302376868</v>
+        <v>0.006274011032233898</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02481227270002003</v>
+        <v>0.02556314314271274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -5463,19 +5463,19 @@
         <v>15481</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9244</v>
+        <v>8357</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27572</v>
+        <v>26504</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02231133000216113</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01332330689314295</v>
+        <v>0.0120441708074317</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03973783345551549</v>
+        <v>0.03819876187186894</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -5484,19 +5484,19 @@
         <v>24410</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15727</v>
+        <v>15613</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>36591</v>
+        <v>36402</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01801857003355864</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01160881168634441</v>
+        <v>0.01152504282861407</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02700955623746069</v>
+        <v>0.02686979106953244</v>
       </c>
     </row>
     <row r="31">
@@ -5588,19 +5588,19 @@
         <v>607061</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>581582</v>
+        <v>580481</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>630344</v>
+        <v>628491</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7791848085988327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7464807706942846</v>
+        <v>0.7450685824088327</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8090693398052144</v>
+        <v>0.8066905821054996</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>600</v>
@@ -5609,19 +5609,19 @@
         <v>652317</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>627990</v>
+        <v>628899</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>676969</v>
+        <v>677498</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7917882234610737</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7622594324615146</v>
+        <v>0.7633633453859363</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8217107060035754</v>
+        <v>0.8223524191236959</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1158</v>
@@ -5630,19 +5630,19 @@
         <v>1259378</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1225282</v>
+        <v>1221735</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1292810</v>
+        <v>1293896</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7856624610080403</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.764391506512313</v>
+        <v>0.7621787249849363</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8065186750415656</v>
+        <v>0.8071962842046324</v>
       </c>
     </row>
     <row r="33">
@@ -5659,19 +5659,19 @@
         <v>149859</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>127975</v>
+        <v>128404</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>174722</v>
+        <v>175564</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.19234976197442</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1642604102344764</v>
+        <v>0.1648109728077829</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2242618358479937</v>
+        <v>0.2253427261793945</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>136</v>
@@ -5680,19 +5680,19 @@
         <v>148795</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>125981</v>
+        <v>126534</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>172594</v>
+        <v>172413</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1806086196532671</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1529173397811315</v>
+        <v>0.1535875132960882</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2094962338236162</v>
+        <v>0.209276706117023</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>273</v>
@@ -5701,19 +5701,19 @@
         <v>298654</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>267631</v>
+        <v>267101</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>331781</v>
+        <v>333160</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1863152832498228</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1669613418091048</v>
+        <v>0.1666305608402772</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.206981499727512</v>
+        <v>0.2078414693604418</v>
       </c>
     </row>
     <row r="34">
@@ -5730,19 +5730,19 @@
         <v>22177</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14710</v>
+        <v>13672</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32368</v>
+        <v>33376</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02846542942674738</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01888141579452039</v>
+        <v>0.01754839505278064</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04154587084929181</v>
+        <v>0.04283987445196598</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>21</v>
@@ -5751,19 +5751,19 @@
         <v>22741</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13966</v>
+        <v>13950</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33607</v>
+        <v>34160</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02760315688565919</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01695174006638783</v>
+        <v>0.01693309406677699</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04079220777527161</v>
+        <v>0.04146400795929372</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>43</v>
@@ -5772,19 +5772,19 @@
         <v>44918</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>32512</v>
+        <v>33153</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>60374</v>
+        <v>59121</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02802225574213692</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02028229286117191</v>
+        <v>0.02068236490916534</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03766412912634604</v>
+        <v>0.03688266610905497</v>
       </c>
     </row>
     <row r="35">
@@ -5876,19 +5876,19 @@
         <v>2895656</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2850932</v>
+        <v>2851361</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2941536</v>
+        <v>2939689</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8475837860963638</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8344924915201823</v>
+        <v>0.8346181574747337</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8610132772445683</v>
+        <v>0.8604724261313117</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2742</v>
@@ -5897,19 +5897,19 @@
         <v>2954380</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2910557</v>
+        <v>2908850</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3002009</v>
+        <v>3004731</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8330428987235879</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.820686123400823</v>
+        <v>0.8202049715021769</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.846472927247308</v>
+        <v>0.8472401881548027</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5462</v>
@@ -5918,19 +5918,19 @@
         <v>5850037</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5786361</v>
+        <v>5778318</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5914784</v>
+        <v>5913915</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8401774684983809</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8310322928951402</v>
+        <v>0.8298771642434264</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8494762942992612</v>
+        <v>0.8493515660653652</v>
       </c>
     </row>
     <row r="37">
@@ -5947,19 +5947,19 @@
         <v>434507</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>393330</v>
+        <v>393997</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>479818</v>
+        <v>475863</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.12718400629245</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1151309946165531</v>
+        <v>0.1153264055220384</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.140446934008486</v>
+        <v>0.139289206954993</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>435</v>
@@ -5968,19 +5968,19 @@
         <v>469358</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>425509</v>
+        <v>427089</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>507690</v>
+        <v>509840</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1323444223694544</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1199802401007625</v>
+        <v>0.1204257829549031</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1431526213245697</v>
+        <v>0.1437589139867293</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>834</v>
@@ -5989,19 +5989,19 @@
         <v>903866</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>842928</v>
+        <v>845782</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>964611</v>
+        <v>968128</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1298124346286455</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1210606046971581</v>
+        <v>0.121470563894439</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1385365698134029</v>
+        <v>0.139041782105748</v>
       </c>
     </row>
     <row r="38">
@@ -6018,19 +6018,19 @@
         <v>86202</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>66908</v>
+        <v>67636</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>105465</v>
+        <v>107193</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02523220761118627</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01958447750757591</v>
+        <v>0.01979755904966025</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03087051172469601</v>
+        <v>0.03137628476722086</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>111</v>
@@ -6039,19 +6039,19 @@
         <v>122754</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>103281</v>
+        <v>100847</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>147304</v>
+        <v>147977</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03461267890695765</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02912197497660418</v>
+        <v>0.02843564037092207</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04153501622064897</v>
+        <v>0.04172491752602662</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>193</v>
@@ -6060,19 +6060,19 @@
         <v>208956</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>182644</v>
+        <v>182203</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>239990</v>
+        <v>241188</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0300100968729736</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02623118596493522</v>
+        <v>0.02616787114398929</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03446716628942179</v>
+        <v>0.03463920175690283</v>
       </c>
     </row>
     <row r="39">
@@ -6408,19 +6408,19 @@
         <v>216617</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199530</v>
+        <v>201524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>230611</v>
+        <v>232814</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7427280862001155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6841421703723582</v>
+        <v>0.6909803293399369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7907105521044189</v>
+        <v>0.7982654662782918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -6429,19 +6429,19 @@
         <v>202139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185905</v>
+        <v>186057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217309</v>
+        <v>217577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.702528942340663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6461105161167594</v>
+        <v>0.6466363653301361</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7552541974179028</v>
+        <v>0.7561829527051699</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>390</v>
@@ -6450,19 +6450,19 @@
         <v>418755</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>395756</v>
+        <v>396707</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>440414</v>
+        <v>440409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.722764526234144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6830676064168661</v>
+        <v>0.684710255715785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.760147020219845</v>
+        <v>0.7601388226779036</v>
       </c>
     </row>
     <row r="5">
@@ -6479,19 +6479,19 @@
         <v>56367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44693</v>
+        <v>43480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71617</v>
+        <v>70207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1932704947168501</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1532423845704189</v>
+        <v>0.1490826008375767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.245557247634518</v>
+        <v>0.2407248707446114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -6500,19 +6500,19 @@
         <v>68432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54943</v>
+        <v>55559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83362</v>
+        <v>83748</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2378331147386802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1909547184783414</v>
+        <v>0.193094669814481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2897242130431075</v>
+        <v>0.2910650312977971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -6521,19 +6521,19 @@
         <v>124799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104720</v>
+        <v>105140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145344</v>
+        <v>147145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2154010291420856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1807442695451245</v>
+        <v>0.1814698310027788</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2508619725295482</v>
+        <v>0.2539692925326831</v>
       </c>
     </row>
     <row r="6">
@@ -6550,19 +6550,19 @@
         <v>18666</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11741</v>
+        <v>10849</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29543</v>
+        <v>29383</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06400141908303433</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04025761968270493</v>
+        <v>0.03719747381972582</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1012970543476086</v>
+        <v>0.1007482483622321</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -6571,19 +6571,19 @@
         <v>17160</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9439</v>
+        <v>9954</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26994</v>
+        <v>27233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05963794292065675</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03280667160012723</v>
+        <v>0.03459499746935858</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09381566064025952</v>
+        <v>0.09464779346489877</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -6592,19 +6592,19 @@
         <v>35826</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24868</v>
+        <v>25671</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48424</v>
+        <v>50884</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06183444462377036</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04292123500129811</v>
+        <v>0.04430725637806934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08357887722507104</v>
+        <v>0.08782416025849793</v>
       </c>
     </row>
     <row r="7">
@@ -6696,19 +6696,19 @@
         <v>397717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>379617</v>
+        <v>377915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416234</v>
+        <v>414294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7929610270182335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7568740506022429</v>
+        <v>0.7534813402499142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8298805473088714</v>
+        <v>0.8260134598771933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>385</v>
@@ -6717,19 +6717,19 @@
         <v>414527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>395825</v>
+        <v>395010</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432864</v>
+        <v>432290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7988132425383283</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7627746554300716</v>
+        <v>0.7612043032737178</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8341513134774858</v>
+        <v>0.8330441435689885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>758</v>
@@ -6738,19 +6738,19 @@
         <v>812243</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>785993</v>
+        <v>783693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>838983</v>
+        <v>837310</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7959369383323729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7702138077299512</v>
+        <v>0.7679594584525318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8221393775825797</v>
+        <v>0.8205001376820048</v>
       </c>
     </row>
     <row r="9">
@@ -6767,19 +6767,19 @@
         <v>89171</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72375</v>
+        <v>73395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106167</v>
+        <v>107825</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1777880425200442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1442998288442122</v>
+        <v>0.1463333622616788</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2116730152908236</v>
+        <v>0.2149790489019799</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -6788,19 +6788,19 @@
         <v>81157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64644</v>
+        <v>65434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98538</v>
+        <v>100260</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1563939438180572</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1245718502468978</v>
+        <v>0.1260947869863012</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1898878297167069</v>
+        <v>0.1932057692595522</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>160</v>
@@ -6809,19 +6809,19 @@
         <v>170328</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>148206</v>
+        <v>148397</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>194818</v>
+        <v>194715</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1669089250021667</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1452309986297765</v>
+        <v>0.145417970266341</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1909070419318492</v>
+        <v>0.1908055084717865</v>
       </c>
     </row>
     <row r="10">
@@ -6838,19 +6838,19 @@
         <v>14671</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8471</v>
+        <v>8386</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24071</v>
+        <v>22920</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02925093046172227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01688868835035746</v>
+        <v>0.0167202780703512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04799332588875852</v>
+        <v>0.04569725314885799</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6859,19 +6859,19 @@
         <v>23244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15003</v>
+        <v>14182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34775</v>
+        <v>33715</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04479281364361447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02891119769354577</v>
+        <v>0.0273288320038419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06701219930188815</v>
+        <v>0.0649711846272838</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -6880,19 +6880,19 @@
         <v>37915</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26115</v>
+        <v>25942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50191</v>
+        <v>51459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03715413666546043</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02559109602045189</v>
+        <v>0.02542099052089286</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04918375796109742</v>
+        <v>0.0504256047741584</v>
       </c>
     </row>
     <row r="11">
@@ -6984,19 +6984,19 @@
         <v>295761</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>283432</v>
+        <v>284892</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>303738</v>
+        <v>303309</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9284161510819348</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8897152402483427</v>
+        <v>0.8942989974214697</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9534580728951029</v>
+        <v>0.9521105651589065</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>314</v>
@@ -7005,19 +7005,19 @@
         <v>317305</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>307608</v>
+        <v>305426</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>324782</v>
+        <v>324319</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.943492270149718</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9146577089499531</v>
+        <v>0.908172182255772</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9657248323796466</v>
+        <v>0.9643485853220768</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>625</v>
@@ -7026,19 +7026,19 @@
         <v>613066</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>598776</v>
+        <v>599630</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>624184</v>
+        <v>624187</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9361584565647747</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9143376958212874</v>
+        <v>0.9156423858817856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.953135813282225</v>
+        <v>0.9531400946071935</v>
       </c>
     </row>
     <row r="13">
@@ -7055,19 +7055,19 @@
         <v>22804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14827</v>
+        <v>15256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35133</v>
+        <v>33673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07158384891806525</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04654192710489715</v>
+        <v>0.04788943484109353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1102847597516572</v>
+        <v>0.1057010025785303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -7076,19 +7076,19 @@
         <v>16455</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9645</v>
+        <v>9789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26277</v>
+        <v>27074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04892743002897267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02867944972244591</v>
+        <v>0.02910680829264917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07813252019988513</v>
+        <v>0.08050436296610954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -7097,19 +7097,19 @@
         <v>39259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28872</v>
+        <v>28675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52678</v>
+        <v>52199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05994869829356625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04408831878258219</v>
+        <v>0.04378632341423851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0804394615574522</v>
+        <v>0.07970863722463487</v>
       </c>
     </row>
     <row r="14">
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9242</v>
+        <v>10116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007580299821309345</v>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02748195882473854</v>
+        <v>0.03007880528514286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8352</v>
+        <v>9858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003892845141659081</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01275290494630068</v>
+        <v>0.01505296928379046</v>
       </c>
     </row>
     <row r="15">
@@ -7264,19 +7264,19 @@
         <v>295607</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>278318</v>
+        <v>278777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>310387</v>
+        <v>308160</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8099718683646778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7625999387066223</v>
+        <v>0.7638576443809193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.850470765512065</v>
+        <v>0.844368704973024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>278</v>
@@ -7285,19 +7285,19 @@
         <v>302883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285526</v>
+        <v>285578</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>319199</v>
+        <v>319898</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7820704691292588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7372553228035118</v>
+        <v>0.7373891330780903</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8242001916957641</v>
+        <v>0.82600519529031</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>561</v>
@@ -7306,19 +7306,19 @@
         <v>598489</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>572836</v>
+        <v>574951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>620973</v>
+        <v>619612</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7956071552337458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7615051629768723</v>
+        <v>0.7643167577428205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8254958958035388</v>
+        <v>0.8236865867754914</v>
       </c>
     </row>
     <row r="17">
@@ -7335,19 +7335,19 @@
         <v>46697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34762</v>
+        <v>35867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60229</v>
+        <v>61931</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1279515950831102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0952486700824027</v>
+        <v>0.09827757341800201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1650299096483418</v>
+        <v>0.1696930773926106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -7356,19 +7356,19 @@
         <v>57246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44210</v>
+        <v>43794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73333</v>
+        <v>71913</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1478148738350117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1141548566369195</v>
+        <v>0.1130789183750908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1893532472309476</v>
+        <v>0.1856860025609549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -7377,19 +7377,19 @@
         <v>103943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85449</v>
+        <v>85221</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125219</v>
+        <v>122339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1381779747246227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1135927213476366</v>
+        <v>0.1132895457044455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1664612631225429</v>
+        <v>0.1626327194855078</v>
       </c>
     </row>
     <row r="18">
@@ -7406,19 +7406,19 @@
         <v>22655</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14697</v>
+        <v>15141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33291</v>
+        <v>32356</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.062076536552212</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04027153432374895</v>
+        <v>0.04148770437172657</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09121883486617065</v>
+        <v>0.08865573944210052</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -7427,19 +7427,19 @@
         <v>27154</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17737</v>
+        <v>18186</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38883</v>
+        <v>39252</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07011465703572947</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04579905915587586</v>
+        <v>0.0469569796992662</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1003999968225083</v>
+        <v>0.1013512799297897</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -7448,19 +7448,19 @@
         <v>49810</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36439</v>
+        <v>38023</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63579</v>
+        <v>65652</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06621487004163144</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04844113439009282</v>
+        <v>0.05054670421990429</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08451945894558138</v>
+        <v>0.08727543733207239</v>
       </c>
     </row>
     <row r="19">
@@ -7552,19 +7552,19 @@
         <v>199498</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191410</v>
+        <v>191439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>205012</v>
+        <v>205477</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.94449900860081</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9062062539912163</v>
+        <v>0.9063464414383363</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9706059529391766</v>
+        <v>0.9728035524933444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -7573,19 +7573,19 @@
         <v>201460</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191751</v>
+        <v>192357</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208074</v>
+        <v>209007</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9216472373984255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8772283194381335</v>
+        <v>0.8800006101880894</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9519029030109697</v>
+        <v>0.9561732908481655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>406</v>
@@ -7594,19 +7594,19 @@
         <v>400958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>389296</v>
+        <v>388910</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>409651</v>
+        <v>409932</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9328773074411024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9057428183151961</v>
+        <v>0.9048463954577028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9531020465638956</v>
+        <v>0.9537560019520601</v>
       </c>
     </row>
     <row r="21">
@@ -7623,19 +7623,19 @@
         <v>9920</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4767</v>
+        <v>4634</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17902</v>
+        <v>16705</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04696474157033616</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02256906762252205</v>
+        <v>0.02193765216289614</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08475589721046001</v>
+        <v>0.07908685768476732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -7644,19 +7644,19 @@
         <v>13717</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7980</v>
+        <v>7469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21516</v>
+        <v>22281</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06275106909168324</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.036506610426273</v>
+        <v>0.03416984191231771</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09843278901751361</v>
+        <v>0.1019314841257298</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -7665,19 +7665,19 @@
         <v>23637</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16010</v>
+        <v>15484</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33780</v>
+        <v>34512</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05499317749495367</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03724977268543269</v>
+        <v>0.03602552990584559</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07859292343434923</v>
+        <v>0.08029536686657376</v>
       </c>
     </row>
     <row r="22">
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6142</v>
+        <v>5769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00853624982885379</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02907657456650101</v>
+        <v>0.02731209292870802</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -7715,19 +7715,19 @@
         <v>3410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9471</v>
+        <v>9504</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01560169350989126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004190827916582338</v>
+        <v>0.004182383029869821</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04333039298109501</v>
+        <v>0.04347723009400317</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -7736,19 +7736,19 @@
         <v>5213</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1827</v>
+        <v>1863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12031</v>
+        <v>11764</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01212951506394392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004251535019709993</v>
+        <v>0.004334304940686647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02799266506094968</v>
+        <v>0.02737070049170769</v>
       </c>
     </row>
     <row r="23">
@@ -7840,19 +7840,19 @@
         <v>242926</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>232643</v>
+        <v>232098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>250054</v>
+        <v>251199</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9232426297750163</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8841606957070373</v>
+        <v>0.8820880754232401</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9503330234892294</v>
+        <v>0.9546837649017046</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>241</v>
@@ -7861,19 +7861,19 @@
         <v>250532</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>240631</v>
+        <v>240554</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>258301</v>
+        <v>259091</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.920801853280378</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8844144116921998</v>
+        <v>0.8841296914993677</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9493564804923541</v>
+        <v>0.9522585270202589</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>481</v>
@@ -7882,19 +7882,19 @@
         <v>493458</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>479266</v>
+        <v>479493</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>504672</v>
+        <v>504610</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9220018173442575</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.895483874317924</v>
+        <v>0.8959079632892355</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9429551730566473</v>
+        <v>0.9428384671709672</v>
       </c>
     </row>
     <row r="25">
@@ -7911,19 +7911,19 @@
         <v>19236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11993</v>
+        <v>11657</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29684</v>
+        <v>30135</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07310664934810905</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04557934032156709</v>
+        <v>0.04430388454800318</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1128158251773638</v>
+        <v>0.1145285477839036</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -7932,19 +7932,19 @@
         <v>19528</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12250</v>
+        <v>12010</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29367</v>
+        <v>29809</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07177198336501951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04502394590289138</v>
+        <v>0.0441411508755579</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1079359470388637</v>
+        <v>0.1095599744588023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -7953,19 +7953,19 @@
         <v>38764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27723</v>
+        <v>28104</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52376</v>
+        <v>52436</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07242814799972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05179955807296634</v>
+        <v>0.05251148355744729</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09786132497598729</v>
+        <v>0.09797443582154435</v>
       </c>
     </row>
     <row r="26">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5844</v>
+        <v>5733</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003650720876874693</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02221164917936398</v>
+        <v>0.02178750063092684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7037</v>
+        <v>7176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00742616335460254</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02586273281596461</v>
+        <v>0.02637337904571082</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -8024,19 +8024,19 @@
         <v>2981</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8022</v>
+        <v>8013</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005570034656022531</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001782417080342062</v>
+        <v>0.001795590493824909</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01498901953138957</v>
+        <v>0.01497274430806066</v>
       </c>
     </row>
     <row r="27">
@@ -8128,19 +8128,19 @@
         <v>575771</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>558217</v>
+        <v>556801</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>592323</v>
+        <v>592554</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8769540409421481</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8502171536694556</v>
+        <v>0.8480610508502252</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9021636519835908</v>
+        <v>0.9025157776202436</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>545</v>
@@ -8149,19 +8149,19 @@
         <v>584209</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>563706</v>
+        <v>564995</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>600761</v>
+        <v>602029</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8481928215758271</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8184260068718017</v>
+        <v>0.8202961783961871</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.872223833583351</v>
+        <v>0.8740651792333749</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1055</v>
@@ -8170,19 +8170,19 @@
         <v>1159980</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1132301</v>
+        <v>1133402</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1183840</v>
+        <v>1185130</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8622291228605981</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8416545273586619</v>
+        <v>0.8424729414238908</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8799646963871159</v>
+        <v>0.8809230674606233</v>
       </c>
     </row>
     <row r="29">
@@ -8199,19 +8199,19 @@
         <v>65754</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49989</v>
+        <v>51180</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82053</v>
+        <v>83781</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.10014896291842</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07613858515793745</v>
+        <v>0.07795195313120575</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1249744667984322</v>
+        <v>0.1276058929500679</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>77</v>
@@ -8220,19 +8220,19 @@
         <v>80235</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>64941</v>
+        <v>63282</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97954</v>
+        <v>99275</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1164898660935278</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09428619444461825</v>
+        <v>0.09187720738635863</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1422153220652978</v>
+        <v>0.1441332303283444</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>134</v>
@@ -8241,19 +8241,19 @@
         <v>145988</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>125421</v>
+        <v>123488</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173808</v>
+        <v>170302</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1085150359130082</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09322730915623534</v>
+        <v>0.0917900249903443</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1291942332308296</v>
+        <v>0.1265879225603716</v>
       </c>
     </row>
     <row r="30">
@@ -8270,19 +8270,19 @@
         <v>15033</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8759</v>
+        <v>8374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25396</v>
+        <v>25318</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02289699613943185</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01334091681569102</v>
+        <v>0.01275431477812641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03868068434760624</v>
+        <v>0.03856123294866067</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -8291,19 +8291,19 @@
         <v>24325</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15495</v>
+        <v>15546</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>36556</v>
+        <v>35032</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03531731233064511</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.022496950031295</v>
+        <v>0.0225708745951916</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05307405374290518</v>
+        <v>0.05086172259610339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>35</v>
@@ -8312,19 +8312,19 @@
         <v>39359</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28235</v>
+        <v>27568</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>53683</v>
+        <v>54005</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0292558412263938</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02098741005674856</v>
+        <v>0.02049172475786823</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03990326074398235</v>
+        <v>0.04014297104004717</v>
       </c>
     </row>
     <row r="31">
@@ -8416,19 +8416,19 @@
         <v>744882</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>731782</v>
+        <v>731431</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>754439</v>
+        <v>755221</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9580507596949489</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.941202260127409</v>
+        <v>0.9407510033887466</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9703434818173747</v>
+        <v>0.9713491063585351</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>707</v>
@@ -8437,19 +8437,19 @@
         <v>771781</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>756684</v>
+        <v>757632</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>784764</v>
+        <v>783794</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9424520450900616</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9240175716598339</v>
+        <v>0.9251741875629786</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9583070231604253</v>
+        <v>0.9571216598651395</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1424</v>
@@ -8458,19 +8458,19 @@
         <v>1516662</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1498157</v>
+        <v>1497095</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1531862</v>
+        <v>1533292</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.950049089771304</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9384571785799826</v>
+        <v>0.9377917557153208</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9595703306488989</v>
+        <v>0.9604662497174661</v>
       </c>
     </row>
     <row r="33">
@@ -8487,19 +8487,19 @@
         <v>27030</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>18466</v>
+        <v>17651</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>39210</v>
+        <v>39391</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03476603801649947</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02375036613205256</v>
+        <v>0.02270203313746547</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0504313051248299</v>
+        <v>0.05066440887350725</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>36</v>
@@ -8508,19 +8508,19 @@
         <v>40438</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>28658</v>
+        <v>29114</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>54838</v>
+        <v>53702</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04938039418203882</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03499485423678213</v>
+        <v>0.03555250093084572</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06696509324655864</v>
+        <v>0.06557795172287309</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>63</v>
@@ -8529,19 +8529,19 @@
         <v>67468</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>53190</v>
+        <v>52390</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>84963</v>
+        <v>86071</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04226276176235175</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03331865517896721</v>
+        <v>0.03281770663650917</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05322141824975359</v>
+        <v>0.05391552505110627</v>
       </c>
     </row>
     <row r="34">
@@ -8558,19 +8558,19 @@
         <v>5585</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1945</v>
+        <v>1888</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14730</v>
+        <v>12677</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007183202288551579</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002500994479626681</v>
+        <v>0.002428806841107351</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01894596942083604</v>
+        <v>0.01630438680788136</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -8579,19 +8579,19 @@
         <v>6688</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2249</v>
+        <v>3069</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13500</v>
+        <v>14109</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008167560727899531</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002746458070785278</v>
+        <v>0.00374749172503938</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0164857213094854</v>
+        <v>0.01722903519439627</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -8600,19 +8600,19 @@
         <v>12273</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6728</v>
+        <v>6107</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21597</v>
+        <v>21175</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007688148466344252</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004214358492704818</v>
+        <v>0.003825446176514056</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01352856268874707</v>
+        <v>0.01326410909233574</v>
       </c>
     </row>
     <row r="35">
@@ -8704,19 +8704,19 @@
         <v>2968778</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2926045</v>
+        <v>2928393</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3005836</v>
+        <v>3004280</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8770050782198549</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8643812562506861</v>
+        <v>0.8650749800734113</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8879522477270483</v>
+        <v>0.8874926255141622</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2871</v>
@@ -8725,19 +8725,19 @@
         <v>3044833</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3001858</v>
+        <v>3001563</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3084969</v>
+        <v>3088321</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8629031992832582</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8507241163966045</v>
+        <v>0.8506403904251199</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8742775382887149</v>
+        <v>0.8752276172474063</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5700</v>
@@ -8746,19 +8746,19 @@
         <v>6013611</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5956722</v>
+        <v>5952036</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6070155</v>
+        <v>6068745</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8698078310546867</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8615793738141158</v>
+        <v>0.8609015825968169</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8779862907963888</v>
+        <v>0.8777823248441108</v>
       </c>
     </row>
     <row r="37">
@@ -8775,19 +8775,19 @@
         <v>336980</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>301194</v>
+        <v>303187</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>374320</v>
+        <v>373854</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09954702517059875</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08897552744452537</v>
+        <v>0.08956443551528556</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1105777259774641</v>
+        <v>0.1104399697268189</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>355</v>
@@ -8796,19 +8796,19 @@
         <v>377207</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>339892</v>
+        <v>341324</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>417835</v>
+        <v>419338</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1069000128636741</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09632519692528248</v>
+        <v>0.09673080019135445</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1184139997448834</v>
+        <v>0.1188399255974429</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>675</v>
@@ -8817,19 +8817,19 @@
         <v>714186</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>663519</v>
+        <v>667817</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>763621</v>
+        <v>770172</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1032998066309589</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09597128608435228</v>
+        <v>0.09659297349154881</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1104500644013743</v>
+        <v>0.1113976153682137</v>
       </c>
     </row>
     <row r="38">
@@ -8846,19 +8846,19 @@
         <v>79374</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>62189</v>
+        <v>64782</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>98780</v>
+        <v>101030</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02344789660954635</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01837132718602254</v>
+        <v>0.01913721648631366</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02918052479305792</v>
+        <v>0.02984528977535899</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>98</v>
@@ -8867,19 +8867,19 @@
         <v>106552</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>89066</v>
+        <v>86489</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>130545</v>
+        <v>128989</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0301967878530677</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02524118313505761</v>
+        <v>0.02451084636447728</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03699632337581268</v>
+        <v>0.03655531043787495</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>172</v>
@@ -8888,19 +8888,19 @@
         <v>185926</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>161803</v>
+        <v>159562</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>219512</v>
+        <v>214366</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02689236231435443</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02340319842140304</v>
+        <v>0.02307901916035697</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03175014564969848</v>
+        <v>0.03100587237048291</v>
       </c>
     </row>
     <row r="39">
@@ -9236,19 +9236,19 @@
         <v>313309</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306978</v>
+        <v>307045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>316429</v>
+        <v>316446</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9826367514933841</v>
+        <v>0.9826367514933843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.96278226996885</v>
+        <v>0.9629899866168333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9924216945387473</v>
+        <v>0.9924747976939453</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>531</v>
@@ -9257,19 +9257,19 @@
         <v>310179</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>294564</v>
+        <v>297912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>314029</v>
+        <v>314024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9813891990750332</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9319851644232664</v>
+        <v>0.9425778719957342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9935696829323019</v>
+        <v>0.9935547831896554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>856</v>
@@ -9278,19 +9278,19 @@
         <v>623488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>611119</v>
+        <v>609953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>629008</v>
+        <v>628963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9820157111084373</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9625345031858168</v>
+        <v>0.9606988030085255</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9907102004333774</v>
+        <v>0.9906389048835309</v>
       </c>
     </row>
     <row r="5">
@@ -9307,19 +9307,19 @@
         <v>5536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2416</v>
+        <v>2399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11867</v>
+        <v>11800</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01736324850661592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007578305461252713</v>
+        <v>0.007525202306054828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03721773003114994</v>
+        <v>0.03701001338316678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -9328,19 +9328,19 @@
         <v>4887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1440</v>
+        <v>1447</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20159</v>
+        <v>16992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01546114081197315</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004555406424616049</v>
+        <v>0.00457714065441396</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06378247828989438</v>
+        <v>0.0537616768526461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -9349,19 +9349,19 @@
         <v>10423</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5328</v>
+        <v>5320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23366</v>
+        <v>24508</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01641636589269512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00839142742074536</v>
+        <v>0.008378713280842342</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03680284165391793</v>
+        <v>0.03860141241295057</v>
       </c>
     </row>
     <row r="6">
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3389</v>
+        <v>3501</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003149660112993673</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01072393152456499</v>
+        <v>0.01107817022833178</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3495</v>
+        <v>3447</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001567922998867652</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005504589218642737</v>
+        <v>0.005429520805833456</v>
       </c>
     </row>
     <row r="7">
@@ -9516,19 +9516,19 @@
         <v>467203</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448718</v>
+        <v>448080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>483585</v>
+        <v>482414</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8804405565188159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8456052213085207</v>
+        <v>0.8444036457065833</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9113116395807761</v>
+        <v>0.9091058561451413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>622</v>
@@ -9537,19 +9537,19 @@
         <v>471608</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>456280</v>
+        <v>454048</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486873</v>
+        <v>485514</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8629693476472863</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8349227676558608</v>
+        <v>0.8308378981860025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8909020630472001</v>
+        <v>0.8884168522568842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>954</v>
@@ -9558,19 +9558,19 @@
         <v>938811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>911436</v>
+        <v>915085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>960267</v>
+        <v>963630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8715764303306481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8461621346648254</v>
+        <v>0.8495503017591038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8914959202500623</v>
+        <v>0.8946180048942132</v>
       </c>
     </row>
     <row r="9">
@@ -9587,19 +9587,19 @@
         <v>60159</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43423</v>
+        <v>45003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77701</v>
+        <v>78150</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1133695212576947</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08183054554030067</v>
+        <v>0.08480717396801651</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1464275832602025</v>
+        <v>0.1472727008826783</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -9608,19 +9608,19 @@
         <v>66044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51522</v>
+        <v>53679</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>81115</v>
+        <v>83921</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1208497823318957</v>
+        <v>0.1208497823318958</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09427805932937217</v>
+        <v>0.09822427189456942</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1484288104043076</v>
+        <v>0.1535633572244399</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>129</v>
@@ -9629,19 +9629,19 @@
         <v>126203</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>104273</v>
+        <v>104472</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>150736</v>
+        <v>151489</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1171646781108766</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09680554357858459</v>
+        <v>0.09699042369494787</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1399409290245924</v>
+        <v>0.1406403056977016</v>
       </c>
     </row>
     <row r="10">
@@ -9658,19 +9658,19 @@
         <v>3285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10599</v>
+        <v>10275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006189922223489363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00171592755767377</v>
+        <v>0.001714261697436595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01997278913869847</v>
+        <v>0.01936272701104016</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -9679,19 +9679,19 @@
         <v>8843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4913</v>
+        <v>4690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14405</v>
+        <v>14095</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01618087002081797</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008989136315132011</v>
+        <v>0.008581908673353067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02635886092077499</v>
+        <v>0.02579089959711503</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -9700,19 +9700,19 @@
         <v>12127</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7109</v>
+        <v>6672</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20257</v>
+        <v>18872</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01125889155847532</v>
+        <v>0.01125889155847531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006600220803351145</v>
+        <v>0.006193929127449773</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0188060921252178</v>
+        <v>0.01752013612494011</v>
       </c>
     </row>
     <row r="11">
@@ -9804,19 +9804,19 @@
         <v>277486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>263866</v>
+        <v>262508</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>287760</v>
+        <v>287977</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8811656524916642</v>
+        <v>0.8811656524916641</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8379135286770762</v>
+        <v>0.8336007397777827</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9137918303625719</v>
+        <v>0.9144795871025211</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>483</v>
@@ -9825,19 +9825,19 @@
         <v>317511</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>305701</v>
+        <v>306889</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>327049</v>
+        <v>327364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8909313933752758</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8577922636391848</v>
+        <v>0.8611259685156363</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9176953682119777</v>
+        <v>0.9185792522870431</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>803</v>
@@ -9846,19 +9846,19 @@
         <v>594997</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>578688</v>
+        <v>577578</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>609065</v>
+        <v>609571</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8863501972726524</v>
+        <v>0.8863501972726522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8620549241331176</v>
+        <v>0.8604012201323319</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9073059869731737</v>
+        <v>0.9080597573506463</v>
       </c>
     </row>
     <row r="13">
@@ -9875,19 +9875,19 @@
         <v>24210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16047</v>
+        <v>16040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35333</v>
+        <v>36056</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07687886758161183</v>
+        <v>0.07687886758161182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05095709710734806</v>
+        <v>0.05093456950472081</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1122004465294392</v>
+        <v>0.1144982017788517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -9896,19 +9896,19 @@
         <v>28272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19974</v>
+        <v>20281</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38519</v>
+        <v>39047</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07933204342746436</v>
+        <v>0.07933204342746439</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05604772256225962</v>
+        <v>0.05690905562916927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1080841951635036</v>
+        <v>0.1095656797090393</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -9917,19 +9917,19 @@
         <v>52482</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40109</v>
+        <v>40269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67161</v>
+        <v>66239</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07818123676998592</v>
+        <v>0.07818123676998594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05974856119629445</v>
+        <v>0.05998691947367475</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1000477383200178</v>
+        <v>0.09867407965885923</v>
       </c>
     </row>
     <row r="14">
@@ -9946,19 +9946,19 @@
         <v>13212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7382</v>
+        <v>7052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22485</v>
+        <v>22843</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04195547992672401</v>
+        <v>0.041955479926724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0234413541008001</v>
+        <v>0.02239240360720611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07140172774265673</v>
+        <v>0.07253878082367791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -9967,19 +9967,19 @@
         <v>10598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5665</v>
+        <v>5775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18134</v>
+        <v>16942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02973656319725985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01589731151334573</v>
+        <v>0.01620410363546324</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05088370883300192</v>
+        <v>0.04753990362567222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -9988,19 +9988,19 @@
         <v>23810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15649</v>
+        <v>16097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34133</v>
+        <v>34771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03546856595736171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02331206203334201</v>
+        <v>0.02397957491030086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05084621232083687</v>
+        <v>0.05179688231270239</v>
       </c>
     </row>
     <row r="15">
@@ -10092,19 +10092,19 @@
         <v>340861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>326284</v>
+        <v>326747</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>351716</v>
+        <v>350923</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9134821195739834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8744147995761132</v>
+        <v>0.875655945347235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9425726113301514</v>
+        <v>0.9404471145251188</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>508</v>
@@ -10113,19 +10113,19 @@
         <v>360621</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>345759</v>
+        <v>345884</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>372736</v>
+        <v>372972</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8560206644311386</v>
+        <v>0.8560206644311387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8207415018974744</v>
+        <v>0.8210399539478223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8847791671467305</v>
+        <v>0.8853380790837662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>767</v>
@@ -10134,19 +10134,19 @@
         <v>701482</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>679938</v>
+        <v>680363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>718943</v>
+        <v>717592</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8830107085795756</v>
+        <v>0.8830107085795755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8558908647801411</v>
+        <v>0.8564258992286062</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9049895919908041</v>
+        <v>0.9032898981250425</v>
       </c>
     </row>
     <row r="17">
@@ -10163,19 +10163,19 @@
         <v>29820</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19541</v>
+        <v>19990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42714</v>
+        <v>43354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07991562067546523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05236852409060534</v>
+        <v>0.05357059211696059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1144707217474649</v>
+        <v>0.116185812381921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -10184,19 +10184,19 @@
         <v>54034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41991</v>
+        <v>42507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68676</v>
+        <v>67754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1282620352925012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09967469631484656</v>
+        <v>0.1009015706210479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1630192179635393</v>
+        <v>0.1608312663414365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -10205,19 +10205,19 @@
         <v>83854</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67636</v>
+        <v>70102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103161</v>
+        <v>105472</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1055533889192301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08513913605750684</v>
+        <v>0.0882424187770444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1298564547827504</v>
+        <v>0.1327665001655494</v>
       </c>
     </row>
     <row r="18">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14565</v>
+        <v>12178</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0066022597505515</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03903403058168259</v>
+        <v>0.03263672183077483</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -10255,19 +10255,19 @@
         <v>6621</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2952</v>
+        <v>3382</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11256</v>
+        <v>11978</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01571730027636017</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007006160707636672</v>
+        <v>0.008028220241394227</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02671892547157167</v>
+        <v>0.02843334106040072</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -10276,19 +10276,19 @@
         <v>9085</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5106</v>
+        <v>4931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17881</v>
+        <v>19242</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01143590250119431</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006427738007431166</v>
+        <v>0.006206723484839765</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02250856656141189</v>
+        <v>0.02422193504053817</v>
       </c>
     </row>
     <row r="19">
@@ -10380,19 +10380,19 @@
         <v>190518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183057</v>
+        <v>182627</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196279</v>
+        <v>196415</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.926352394523141</v>
+        <v>0.9263523945231411</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8900714883108285</v>
+        <v>0.8879839071830636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9543649814101813</v>
+        <v>0.9550263108082764</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>452</v>
@@ -10401,19 +10401,19 @@
         <v>208088</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201394</v>
+        <v>200295</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213592</v>
+        <v>213272</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9125444024434893</v>
+        <v>0.9125444024434896</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.88319037146162</v>
+        <v>0.878370271706948</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.936684440883095</v>
+        <v>0.9352785844641308</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>712</v>
@@ -10422,19 +10422,19 @@
         <v>398606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>388243</v>
+        <v>387829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>406524</v>
+        <v>406483</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9190923684907476</v>
+        <v>0.9190923684907477</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8951993791583224</v>
+        <v>0.8942437322811052</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9373496159964387</v>
+        <v>0.9372543789451039</v>
       </c>
     </row>
     <row r="21">
@@ -10451,19 +10451,19 @@
         <v>14141</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8468</v>
+        <v>8527</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21358</v>
+        <v>21960</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06875643757549589</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04117560041912263</v>
+        <v>0.04146240054999365</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1038485679879092</v>
+        <v>0.1067733667005208</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -10472,19 +10472,19 @@
         <v>19503</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13945</v>
+        <v>14324</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25937</v>
+        <v>27178</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08552616950275128</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06115320470813276</v>
+        <v>0.06281414109398212</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1137429429945864</v>
+        <v>0.1191845610992292</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -10493,19 +10493,19 @@
         <v>33643</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25823</v>
+        <v>25436</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43446</v>
+        <v>43219</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07757370004536319</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05954189821256305</v>
+        <v>0.05864876990298769</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1001756760624275</v>
+        <v>0.09965375460005296</v>
       </c>
     </row>
     <row r="22">
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4559</v>
+        <v>5063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004891167901362948</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02216580254761018</v>
+        <v>0.02461598442030542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2203</v>
+        <v>2238</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001929428053759129</v>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009659369003602702</v>
+        <v>0.009815892798001073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6289</v>
+        <v>6869</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003333931463889279</v>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01450018754028106</v>
+        <v>0.01583941361609697</v>
       </c>
     </row>
     <row r="23">
@@ -10668,19 +10668,19 @@
         <v>244773</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>234382</v>
+        <v>234851</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>252880</v>
+        <v>253238</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9042004333622783</v>
+        <v>0.9042004333622784</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8658137603750268</v>
+        <v>0.8675469299636455</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9341473356970241</v>
+        <v>0.9354696262989324</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>424</v>
@@ -10689,19 +10689,19 @@
         <v>241181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>232697</v>
+        <v>232881</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>247672</v>
+        <v>247126</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9144293713769189</v>
+        <v>0.9144293713769186</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8822630033601981</v>
+        <v>0.8829619459842192</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9390420230243516</v>
+        <v>0.9369722295153501</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>762</v>
@@ -10710,19 +10710,19 @@
         <v>485954</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>473017</v>
+        <v>473580</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>495674</v>
+        <v>496430</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9092483306083056</v>
+        <v>0.9092483306083053</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8850426763458883</v>
+        <v>0.8860954381315528</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9274339641371581</v>
+        <v>0.9288493931377999</v>
       </c>
     </row>
     <row r="25">
@@ -10739,19 +10739,19 @@
         <v>19898</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12960</v>
+        <v>13486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28972</v>
+        <v>29045</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07350203491669054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04787594934841445</v>
+        <v>0.04981612179892672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1070229104641479</v>
+        <v>0.1072943117211056</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -10760,19 +10760,19 @@
         <v>14763</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9760</v>
+        <v>9946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22124</v>
+        <v>22109</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05597246935359518</v>
+        <v>0.05597246935359516</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03700420555698084</v>
+        <v>0.03770923785148922</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08388311063723154</v>
+        <v>0.08382393874660625</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -10781,19 +10781,19 @@
         <v>34660</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26010</v>
+        <v>25299</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45574</v>
+        <v>45003</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06485133768855685</v>
+        <v>0.06485133768855686</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04866704807661624</v>
+        <v>0.04733651969066695</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08527130753194359</v>
+        <v>0.08420292012451734</v>
       </c>
     </row>
     <row r="26">
@@ -10810,19 +10810,19 @@
         <v>6036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12046</v>
+        <v>11926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0222975317210311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008158675851577358</v>
+        <v>0.008145196698673933</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04449728918222383</v>
+        <v>0.04405678154068951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -10831,19 +10831,19 @@
         <v>7807</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4115</v>
+        <v>3989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14281</v>
+        <v>14924</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02959815926948606</v>
+        <v>0.02959815926948605</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01560124641617263</v>
+        <v>0.01512361635179364</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05414665399239079</v>
+        <v>0.05658350237955456</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -10852,19 +10852,19 @@
         <v>13843</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8399</v>
+        <v>8260</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23578</v>
+        <v>21782</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02590033170313765</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01571579993061489</v>
+        <v>0.01545411840093831</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04411618545448151</v>
+        <v>0.04075584830604198</v>
       </c>
     </row>
     <row r="27">
@@ -10956,19 +10956,19 @@
         <v>626243</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>603852</v>
+        <v>603288</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>645220</v>
+        <v>646851</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8743894003192076</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8431267330230739</v>
+        <v>0.8423388233690252</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9008860871658138</v>
+        <v>0.9031633410848017</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>830</v>
@@ -10977,19 +10977,19 @@
         <v>669295</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>649853</v>
+        <v>648987</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>685286</v>
+        <v>685208</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8692761357051595</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8440247021548454</v>
+        <v>0.8429010438072608</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8900456175524181</v>
+        <v>0.8899445337615504</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1356</v>
@@ -10998,19 +10998,19 @@
         <v>1295537</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1262928</v>
+        <v>1266202</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1320718</v>
+        <v>1323152</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8717403200856236</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8497985015439873</v>
+        <v>0.85200163361107</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8886844724883052</v>
+        <v>0.890322268033032</v>
       </c>
     </row>
     <row r="29">
@@ -11027,19 +11027,19 @@
         <v>52128</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35185</v>
+        <v>36872</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>71227</v>
+        <v>70841</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07278298406239435</v>
+        <v>0.07278298406239433</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04912680300524234</v>
+        <v>0.05148214885505985</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09945036385875279</v>
+        <v>0.09891174239948473</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>77</v>
@@ -11048,19 +11048,19 @@
         <v>60296</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>47764</v>
+        <v>48469</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>74939</v>
+        <v>77497</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07831247918270605</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06203508987607922</v>
+        <v>0.06295140120374888</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09733075863348838</v>
+        <v>0.1006529701683787</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>117</v>
@@ -11069,19 +11069,19 @@
         <v>112424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>92390</v>
+        <v>90093</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>138025</v>
+        <v>137004</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.075647705004994</v>
+        <v>0.07564770500499399</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06216727747259689</v>
+        <v>0.06062154936135505</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09287432544915335</v>
+        <v>0.09218732607338183</v>
       </c>
     </row>
     <row r="30">
@@ -11098,19 +11098,19 @@
         <v>37835</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25778</v>
+        <v>25702</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54349</v>
+        <v>54235</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05282761561839797</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03599267479598519</v>
+        <v>0.03588650887985835</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07588428338503056</v>
+        <v>0.07572540725212003</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>50</v>
@@ -11119,19 +11119,19 @@
         <v>40354</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30145</v>
+        <v>30548</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>52890</v>
+        <v>54090</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.05241138511213447</v>
+        <v>0.05241138511213446</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03915219083403022</v>
+        <v>0.03967577970676842</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06869299883751381</v>
+        <v>0.07025226210339196</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>80</v>
@@ -11140,19 +11140,19 @@
         <v>78189</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>62396</v>
+        <v>62218</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>98731</v>
+        <v>97277</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05261197490938244</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04198501116584644</v>
+        <v>0.04186525645478274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06643420327379562</v>
+        <v>0.06545538429470547</v>
       </c>
     </row>
     <row r="31">
@@ -11244,19 +11244,19 @@
         <v>749045</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>732449</v>
+        <v>732844</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>763083</v>
+        <v>761990</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9385677934904857</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9177733775039928</v>
+        <v>0.9182679141746803</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9561583560504194</v>
+        <v>0.9547888508630898</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>979</v>
@@ -11265,19 +11265,19 @@
         <v>764121</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>748901</v>
+        <v>747486</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>777450</v>
+        <v>777841</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9191540768200799</v>
+        <v>0.9191540768200801</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9008462024526253</v>
+        <v>0.8991433547225196</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9351874561095531</v>
+        <v>0.9356569749764044</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1696</v>
@@ -11286,19 +11286,19 @@
         <v>1513166</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1490899</v>
+        <v>1488826</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1532178</v>
+        <v>1531115</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9286627977355186</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.914997133227255</v>
+        <v>0.913724927813003</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9403311306775739</v>
+        <v>0.9396784630868141</v>
       </c>
     </row>
     <row r="33">
@@ -11315,19 +11315,19 @@
         <v>39998</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>27621</v>
+        <v>28212</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>55092</v>
+        <v>55066</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05011838905187677</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03460904651122609</v>
+        <v>0.03534969613151279</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06903081273724092</v>
+        <v>0.06899854682060547</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>71</v>
@@ -11336,19 +11336,19 @@
         <v>58587</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>45696</v>
+        <v>45995</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>73832</v>
+        <v>74177</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07047375700434426</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05496755222583651</v>
+        <v>0.05532681565132259</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08881159425769047</v>
+        <v>0.0892266053854755</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>107</v>
@@ -11357,19 +11357,19 @@
         <v>98585</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>80672</v>
+        <v>80825</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>118808</v>
+        <v>119492</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.06050382099069413</v>
+        <v>0.06050382099069414</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04950998859588478</v>
+        <v>0.04960395179954029</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07291533661373387</v>
+        <v>0.07333502502378325</v>
       </c>
     </row>
     <row r="34">
@@ -11386,19 +11386,19 @@
         <v>9029</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4143</v>
+        <v>4395</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17879</v>
+        <v>16917</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01131381745763744</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00519183793285532</v>
+        <v>0.005507337465204653</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02240265000530436</v>
+        <v>0.02119702393727069</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -11407,19 +11407,19 @@
         <v>8623</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4465</v>
+        <v>4152</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14782</v>
+        <v>14940</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0103721661755758</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005371244413428652</v>
+        <v>0.00499454255596637</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01778063427993502</v>
+        <v>0.01797064277389636</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -11428,19 +11428,19 @@
         <v>17652</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11420</v>
+        <v>10894</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26950</v>
+        <v>27394</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01083338127378718</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00700840500386499</v>
+        <v>0.006685632343852611</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01654000840995346</v>
+        <v>0.01681216118963446</v>
       </c>
     </row>
     <row r="35">
@@ -11532,19 +11532,19 @@
         <v>3209439</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3173869</v>
+        <v>3164125</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3244567</v>
+        <v>3243166</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.9096545598884237</v>
+        <v>0.9096545598884236</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8995731281926868</v>
+        <v>0.8968111650523106</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9196110402953761</v>
+        <v>0.919213875999747</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4829</v>
@@ -11553,19 +11553,19 @@
         <v>3342604</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3311092</v>
+        <v>3309506</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3374927</v>
+        <v>3377037</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.8953556859147538</v>
+        <v>0.8953556859147537</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8869148749918404</v>
+        <v>0.8864901153185136</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9040138740575292</v>
+        <v>0.9045790409722488</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7906</v>
@@ -11574,19 +11574,19 @@
         <v>6552042</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6497422</v>
+        <v>6504375</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6601408</v>
+        <v>6603836</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.9023032122211871</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8947812797852011</v>
+        <v>0.8957387290465915</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9091015017619415</v>
+        <v>0.9094358841721923</v>
       </c>
     </row>
     <row r="37">
@@ -11603,19 +11603,19 @@
         <v>245889</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>214792</v>
+        <v>216986</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>277942</v>
+        <v>285787</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06969264546587157</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06087872508639174</v>
+        <v>0.06150059725189227</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0787772706971229</v>
+        <v>0.08100080579667603</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>418</v>
@@ -11624,19 +11624,19 @@
         <v>306385</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>273568</v>
+        <v>274016</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>336831</v>
+        <v>337490</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08206887401104389</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07327834970541258</v>
+        <v>0.0733983499830814</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09022412709672727</v>
+        <v>0.09040065479288313</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>648</v>
@@ -11645,19 +11645,19 @@
         <v>552274</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>509554</v>
+        <v>508594</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>600968</v>
+        <v>596779</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.07605552124282243</v>
+        <v>0.07605552124282244</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07017239258078527</v>
+        <v>0.0700401627846365</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08276129004687033</v>
+        <v>0.08218440613604518</v>
       </c>
     </row>
     <row r="38">
@@ -11674,19 +11674,19 @@
         <v>72867</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>56601</v>
+        <v>55091</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>94781</v>
+        <v>95485</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02065279464570475</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0160425200953511</v>
+        <v>0.0156145063443291</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0268637553875486</v>
+        <v>0.02706343888992323</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>114</v>
@@ -11695,19 +11695,19 @@
         <v>84280</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>67786</v>
+        <v>69808</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>101845</v>
+        <v>101045</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0225754400742025</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01815718476758893</v>
+        <v>0.01869886074521729</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02728033855863958</v>
+        <v>0.02706615833163179</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>179</v>
@@ -11716,19 +11716,19 @@
         <v>157147</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>133203</v>
+        <v>133601</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>183122</v>
+        <v>181539</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.02164126653599039</v>
+        <v>0.0216412665359904</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01834384309870782</v>
+        <v>0.0183986933824491</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02521836802257191</v>
+        <v>0.02500032920928433</v>
       </c>
     </row>
     <row r="39">
